--- a/classification/droptc/drone-sbert/freeze/99511865/prediction.xlsx
+++ b/classification/droptc/drone-sbert/freeze/99511865/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9505369067192078</v>
+        <v>0.984531581401825</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4271504580974579</v>
+        <v>0.8609548807144165</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7829664945602417</v>
+        <v>0.907916784286499</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9890162348747253</v>
+        <v>0.9880343079566956</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9879572987556458</v>
+        <v>0.9878677129745483</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9874663949012756</v>
+        <v>0.9867517948150635</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9852632284164429</v>
+        <v>0.950356125831604</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8655328750610352</v>
+        <v>0.9884628653526306</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.985321581363678</v>
+        <v>0.9874767661094666</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7754530310630798</v>
+        <v>0.9865792393684387</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9866385459899902</v>
+        <v>0.9409043192863464</v>
       </c>
     </row>
     <row r="13">
@@ -786,7 +786,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9868871569633484</v>
+        <v>0.9876003265380859</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9475899338722229</v>
+        <v>0.3060692250728607</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9395914673805237</v>
+        <v>0.9857940077781677</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9883785843849182</v>
+        <v>0.9880446791648865</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9482904076576233</v>
+        <v>0.9460416436195374</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8818218111991882</v>
+        <v>0.9499048590660095</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5432851910591125</v>
+        <v>0.9479756355285645</v>
       </c>
     </row>
     <row r="20">
@@ -987,14 +987,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.988922119140625</v>
+        <v>0.8543893098831177</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9865812063217163</v>
+        <v>0.9482294917106628</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3950757682323456</v>
+        <v>0.5508524179458618</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9889397025108337</v>
+        <v>0.8539748787879944</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8788851499557495</v>
+        <v>0.4150378108024597</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9887258410453796</v>
+        <v>0.9546157717704773</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9479426741600037</v>
+        <v>0.9477930068969727</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6324911713600159</v>
+        <v>0.9539891481399536</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9853775501251221</v>
+        <v>0.9549024701118469</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9851491451263428</v>
+        <v>0.8891199827194214</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9867091178894043</v>
+        <v>0.9859912991523743</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9893534183502197</v>
+        <v>0.6503100395202637</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9893769025802612</v>
+        <v>0.9871901869773865</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9894989728927612</v>
+        <v>0.9879091382026672</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9875233769416809</v>
+        <v>0.9873692393302917</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9494016170501709</v>
+        <v>0.9412899017333984</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8716369867324829</v>
+        <v>0.7474551200866699</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9880736470222473</v>
+        <v>0.9846974611282349</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9853188991546631</v>
+        <v>0.9879953265190125</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9883592128753662</v>
+        <v>0.9857847094535828</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9894773364067078</v>
+        <v>0.9525162577629089</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9867618083953857</v>
+        <v>0.9844531416893005</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9464885592460632</v>
+        <v>0.9871931672096252</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.937646746635437</v>
+        <v>0.9523863196372986</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9513788819313049</v>
+        <v>0.988580048084259</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8788851499557495</v>
+        <v>0.9878069758415222</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9882395267486572</v>
+        <v>0.9479756355285645</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9879441261291504</v>
+        <v>0.8561252355575562</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9886385798454285</v>
+        <v>0.6471702456474304</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9866325855255127</v>
+        <v>0.9877853393554688</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5461409687995911</v>
+        <v>0.9884784817695618</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9874454736709595</v>
+        <v>0.9513006210327148</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9874640703201294</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9479426741600037</v>
+        <v>0.9883721470832825</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9867074489593506</v>
+        <v>0.9845086336135864</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9883460402488708</v>
+        <v>0.9857154488563538</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.943571925163269</v>
+        <v>0.9867857098579407</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9883434176445007</v>
+        <v>0.9423050880432129</v>
       </c>
     </row>
     <row r="58">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9887077808380127</v>
+        <v>0.9532686471939087</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9854432344436646</v>
+        <v>0.9856907725334167</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9350041747093201</v>
+        <v>0.9844672679901123</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9874546527862549</v>
+        <v>0.9858782291412354</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9451481699943542</v>
+        <v>0.95830237865448</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9820505380630493</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9476418495178223</v>
+        <v>0.9546859860420227</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9893704652786255</v>
+        <v>0.9559268355369568</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9883667826652527</v>
+        <v>0.9865018725395203</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9851995706558228</v>
+        <v>0.9872981309890747</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.818044126033783</v>
+        <v>0.984531581401825</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9867501854896545</v>
+        <v>0.9874810576438904</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.988482654094696</v>
+        <v>0.9426637291908264</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9876264929771423</v>
+        <v>0.9879607558250427</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9875367283821106</v>
+        <v>0.9501243233680725</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9866885542869568</v>
+        <v>0.986400842666626</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9238815307617188</v>
+        <v>0.8891199827194214</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9894233345985413</v>
+        <v>0.9858524799346924</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9310824871063232</v>
+        <v>0.984531581401825</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.910664975643158</v>
+        <v>0.7008727192878723</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9479426741600037</v>
+        <v>0.9820389151573181</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.8893356919288635</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9888325929641724</v>
+        <v>0.9880343079566956</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9439972639083862</v>
+        <v>0.988664984703064</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3521118760108948</v>
+        <v>0.9874817132949829</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9873726963996887</v>
+        <v>0.9871137142181396</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9866487383842468</v>
+        <v>0.9873306751251221</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7853519916534424</v>
+        <v>0.9884612560272217</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9866513013839722</v>
+        <v>0.9364046454429626</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9895265102386475</v>
+        <v>0.7230952382087708</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9238815307617188</v>
+        <v>0.988115668296814</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9867333769798279</v>
+        <v>0.9866062998771667</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9893534183502197</v>
+        <v>0.9479756355285645</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9883435964584351</v>
+        <v>0.9526658654212952</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9879781007766724</v>
+        <v>0.9845086336135864</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9880279302597046</v>
+        <v>0.8622547388076782</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6339196562767029</v>
+        <v>0.8917538523674011</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9394904971122742</v>
+        <v>0.9821504354476929</v>
       </c>
     </row>
     <row r="96">
@@ -3115,14 +3115,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7491223216056824</v>
+        <v>0.98586106300354</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9846131801605225</v>
+        <v>0.9873834252357483</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9391817450523376</v>
+        <v>0.9885774850845337</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5038356781005859</v>
+        <v>0.9883136749267578</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.988922119140625</v>
+        <v>0.9546616673469543</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9476932287216187</v>
+        <v>0.9884946942329407</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.98799067735672</v>
+        <v>0.9872057437896729</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9466555118560791</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.988260805606842</v>
+        <v>0.9466555118560791</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9883295297622681</v>
+        <v>0.9876019358634949</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9887980818748474</v>
+        <v>0.9866553544998169</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7852147221565247</v>
+        <v>0.9859465956687927</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8476319313049316</v>
+        <v>0.8891199827194214</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.98911052942276</v>
+        <v>0.9874890446662903</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8788851499557495</v>
+        <v>0.9882400035858154</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9879680871963501</v>
+        <v>0.9880989193916321</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9875264763832092</v>
+        <v>0.9871134757995605</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9870413541793823</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8823466300964355</v>
+        <v>0.9875063896179199</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6218952536582947</v>
+        <v>0.9524219632148743</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9446672201156616</v>
+        <v>0.9884612560272217</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7826108336448669</v>
+        <v>0.9865925908088684</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9886379837989807</v>
+        <v>0.9508117437362671</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9881298542022705</v>
+        <v>0.8893356919288635</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9888995885848999</v>
+        <v>0.9511076807975769</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9879706501960754</v>
+        <v>0.9886371493339539</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5637888312339783</v>
+        <v>0.9280604720115662</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8786795735359192</v>
+        <v>0.9876412749290466</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9444196224212646</v>
+        <v>0.9880328178405762</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9867044687271118</v>
+        <v>0.9486371874809265</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9446672201156616</v>
+        <v>0.9844802021980286</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9866901636123657</v>
+        <v>0.984531581401825</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9305458068847656</v>
+        <v>0.9859089255332947</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9874146580696106</v>
+        <v>0.9874492883682251</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9867501854896545</v>
+        <v>0.987498939037323</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9872776865959167</v>
+        <v>0.9513006210327148</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9893398880958557</v>
+        <v>0.9858391880989075</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9865825772285461</v>
+        <v>0.9867080450057983</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9867559671401978</v>
+        <v>0.9870900511741638</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8830226063728333</v>
+        <v>0.8158199787139893</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9805886149406433</v>
+        <v>0.9865238070487976</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9505507946014404</v>
+        <v>0.8717747330665588</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7851717472076416</v>
+        <v>0.8773540258407593</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9883621335029602</v>
+        <v>0.9794193506240845</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9855276346206665</v>
+        <v>0.9511076807975769</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9867618083953857</v>
+        <v>0.9858341813087463</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.941521167755127</v>
+        <v>0.9479018449783325</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9885486364364624</v>
+        <v>0.9416527152061462</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9867091178894043</v>
+        <v>0.9877544045448303</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9895833730697632</v>
+        <v>0.9507481455802917</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9867501854896545</v>
+        <v>0.987108051776886</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9340145587921143</v>
+        <v>0.4713158011436462</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9868173003196716</v>
+        <v>0.9887240529060364</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9853775501251221</v>
+        <v>0.8830668330192566</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9327421188354492</v>
+        <v>0.8606219887733459</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9477930068969727</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9533825516700745</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9446672201156616</v>
+        <v>0.9878887534141541</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9895263910293579</v>
+        <v>0.9857768416404724</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9893552660942078</v>
+        <v>0.9843214750289917</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9891949892044067</v>
+        <v>0.9879949688911438</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9882071614265442</v>
+        <v>0.9476721286773682</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9548285603523254</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9883601665496826</v>
+        <v>0.9858906269073486</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9438416361808777</v>
+        <v>0.984531581401825</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9827238917350769</v>
+        <v>0.9858881831169128</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9888898134231567</v>
+        <v>0.9755565524101257</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9357576370239258</v>
+        <v>0.9885497689247131</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9385473728179932</v>
+        <v>0.3643179833889008</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9868118166923523</v>
+        <v>0.9857547283172607</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9853410124778748</v>
+        <v>0.955744743347168</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9881209135055542</v>
+        <v>0.9866328239440918</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9491302967071533</v>
+        <v>0.9878525733947754</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9019412994384766</v>
+        <v>0.9858830571174622</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.988243043422699</v>
+        <v>0.984531581401825</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9867096543312073</v>
+        <v>0.9871063232421875</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.98272705078125</v>
+        <v>0.984531581401825</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.988925039768219</v>
+        <v>0.9866045117378235</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9881906509399414</v>
+        <v>0.9843729734420776</v>
       </c>
     </row>
     <row r="175">
@@ -5322,19 +5322,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9875022172927856</v>
+        <v>0.9473219513893127</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9443725347518921</v>
+        <v>0.8601143360137939</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.924184262752533</v>
+        <v>0.9866251945495605</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9443725347518921</v>
+        <v>0.9857777953147888</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9879789352416992</v>
+        <v>0.9839316010475159</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9874632358551025</v>
+        <v>0.9858391880989075</v>
       </c>
     </row>
     <row r="181">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="E181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9892356991767883</v>
+        <v>0.9868712425231934</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9305458068847656</v>
+        <v>0.9513006210327148</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.4209804534912109</v>
+        <v>0.9409043192863464</v>
       </c>
     </row>
     <row r="184">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="E184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9889602661132812</v>
+        <v>0.9276878237724304</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9779716730117798</v>
+        <v>0.9844761490821838</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9372599720954895</v>
+        <v>0.616628110408783</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6055073738098145</v>
+        <v>0.9866272807121277</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9881068468093872</v>
+        <v>0.9510013461112976</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9884846806526184</v>
+        <v>0.9857991933822632</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9524835348129272</v>
+        <v>0.9872300028800964</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9876691699028015</v>
+        <v>0.9844606518745422</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9880800843238831</v>
+        <v>0.5130133628845215</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9401558041572571</v>
+        <v>0.9872061014175415</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9879705309867859</v>
+        <v>0.9866597652435303</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9887945652008057</v>
+        <v>0.9886078834533691</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9881742000579834</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9294271469116211</v>
+        <v>0.984531581401825</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9874788522720337</v>
+        <v>0.9874767661094666</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.775861382484436</v>
+        <v>0.8996412754058838</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.3186626434326172</v>
+        <v>0.984531581401825</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.8786795735359192</v>
+        <v>0.8900923132896423</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9476932287216187</v>
+        <v>0.6908590793609619</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9887024164199829</v>
+        <v>0.9880011677742004</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9403328895568848</v>
+        <v>0.9858881831169128</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9503456354141235</v>
+        <v>0.9858881831169128</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9888717532157898</v>
+        <v>0.9871359467506409</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9874962568283081</v>
+        <v>0.9859104156494141</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9337078928947449</v>
+        <v>0.9875172972679138</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9827663898468018</v>
+        <v>0.987176239490509</v>
       </c>
     </row>
     <row r="210">
@@ -6307,14 +6307,14 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9888618588447571</v>
+        <v>0.7117327451705933</v>
       </c>
     </row>
   </sheetData>
